--- a/ONCHO/Entomological survey Survey/Benin/2024/bj_oncho_bsa_2408_1_river_ass.xlsx
+++ b/ONCHO/Entomological survey Survey/Benin/2024/bj_oncho_bsa_2408_1_river_ass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Benin\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF465538-7A85-41AF-BD0B-42277C6CF25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08B9BC0-CA01-47C8-95AC-723ED105444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1177,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1734,8 +1747,8 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80:XFD110"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57:G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2757,7 +2770,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2799,8 +2812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
